--- a/api/src/JV_Template.xlsx
+++ b/api/src/JV_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\fin\journals\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\ytgov\JV\api\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_0A25D5514E2D0DA948A8C7006D5FFA1A2A064136" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0739B14-C46F-40F8-8387-91DBB1593FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="4320" windowWidth="15480" windowHeight="5475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="2250" windowWidth="24330" windowHeight="12165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GL Journal" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,25 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'GL Journal'!$A$1:$K$37</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'GL Journal'!$1:$16</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
   <si>
     <r>
       <t xml:space="preserve">G/L Journal - Electronic </t>
@@ -332,9 +345,6 @@
     <t>(16 CHAR'S MAX.)</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <r>
       <t>Journal Explanation</t>
     </r>
@@ -434,7 +444,7 @@
     <numFmt numFmtId="164" formatCode="mm\/dd\/yyyy"/>
     <numFmt numFmtId="165" formatCode="00"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -594,7 +604,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -1015,80 +1025,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFF0000"/>
+        <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color rgb="FFFF0000"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFFF0000"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFFF0000"/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFFF0000"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1096,7 +1054,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1236,10 +1194,6 @@
     <xf numFmtId="40" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="1" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1247,103 +1201,159 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1357,9 +1367,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1372,107 +1379,46 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2062,11 +2008,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.140625" customWidth="1"/>
     <col min="2" max="2" width="5.5703125" customWidth="1"/>
@@ -2087,7 +2031,7 @@
     <col min="20" max="20" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="21" customHeight="1">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2099,8 +2043,8 @@
       <c r="G1" s="11"/>
       <c r="H1" s="44"/>
       <c r="I1" s="11"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="66"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="92"/>
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
       <c r="N1" s="12"/>
@@ -2111,7 +2055,7 @@
       <c r="S1"/>
       <c r="T1"/>
     </row>
-    <row r="2" spans="1:20" ht="9.9499999999999993" customHeight="1" thickBot="1">
+    <row r="2" spans="1:20" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -2121,80 +2065,80 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="68"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="94"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
     </row>
-    <row r="3" spans="1:20" ht="15.95" customHeight="1" thickBot="1">
-      <c r="C3" s="102" t="s">
+    <row r="3" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="106" t="s">
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="106"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="68"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="94"/>
     </row>
-    <row r="4" spans="1:20" ht="15.95" customHeight="1" thickBot="1">
-      <c r="C4" s="104" t="s">
+    <row r="4" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="83" t="s">
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="83"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="68"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="94"/>
     </row>
-    <row r="5" spans="1:20" s="2" customFormat="1" ht="15.95" customHeight="1" thickBot="1">
+    <row r="5" spans="1:20" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5"/>
       <c r="B5"/>
-      <c r="C5" s="107" t="s">
+      <c r="C5" s="59" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="108"/>
       <c r="E5" s="108"/>
       <c r="F5" s="108"/>
-      <c r="G5" s="51"/>
+      <c r="G5" s="111"/>
       <c r="H5" s="36" t="s">
         <v>6</v>
       </c>
       <c r="I5" s="36"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="70"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="96"/>
       <c r="L5"/>
       <c r="M5"/>
       <c r="N5"/>
       <c r="O5"/>
       <c r="P5"/>
     </row>
-    <row r="6" spans="1:20" s="2" customFormat="1" ht="15.95" customHeight="1" thickBot="1">
+    <row r="6" spans="1:20" s="2" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6"/>
       <c r="B6"/>
-      <c r="C6" s="104" t="s">
+      <c r="C6" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="83" t="s">
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="83"/>
-      <c r="J6" s="113" t="s">
+      <c r="I6" s="52"/>
+      <c r="J6" s="49" t="s">
         <v>9</v>
       </c>
       <c r="K6"/>
@@ -2204,16 +2148,16 @@
       <c r="O6"/>
       <c r="P6"/>
     </row>
-    <row r="7" spans="1:20" s="2" customFormat="1" ht="15.95" customHeight="1" thickBot="1">
+    <row r="7" spans="1:20" s="2" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7"/>
       <c r="B7"/>
-      <c r="C7" s="107" t="s">
+      <c r="C7" s="59" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="108"/>
       <c r="E7" s="108"/>
       <c r="F7" s="108"/>
-      <c r="G7" s="54"/>
+      <c r="G7" s="113"/>
       <c r="H7" s="5" t="s">
         <v>11</v>
       </c>
@@ -2228,153 +2172,153 @@
       <c r="O7"/>
       <c r="P7"/>
     </row>
-    <row r="8" spans="1:20" s="2" customFormat="1" ht="15.95" customHeight="1">
+    <row r="8" spans="1:20" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8"/>
       <c r="B8"/>
-      <c r="C8" s="104" t="s">
+      <c r="C8" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="53">
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="114">
         <f>SUMIF(F17:F26,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="H8" s="83" t="s">
+      <c r="H8" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="83"/>
+      <c r="I8" s="52"/>
       <c r="J8" s="15"/>
-      <c r="K8" s="114"/>
-      <c r="L8" s="114"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
       <c r="M8"/>
       <c r="N8"/>
       <c r="O8"/>
       <c r="P8"/>
       <c r="Q8"/>
     </row>
-    <row r="9" spans="1:20" s="2" customFormat="1" ht="15.95" customHeight="1" thickBot="1">
+    <row r="9" spans="1:20" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9"/>
       <c r="B9"/>
-      <c r="C9" s="107" t="s">
+      <c r="C9" s="59" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="108"/>
       <c r="E9" s="108"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="55">
+      <c r="F9" s="108"/>
+      <c r="G9" s="114">
         <f>SUMIF(F17:F26,"&lt;0")</f>
         <v>0</v>
       </c>
-      <c r="H9" s="83" t="s">
+      <c r="H9" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="83"/>
+      <c r="I9" s="52"/>
       <c r="J9" s="15"/>
-      <c r="K9" s="114"/>
-      <c r="L9" s="114"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
       <c r="M9"/>
       <c r="N9"/>
       <c r="O9"/>
       <c r="P9"/>
       <c r="Q9"/>
     </row>
-    <row r="10" spans="1:20" s="2" customFormat="1" ht="15.95" customHeight="1" thickBot="1">
+    <row r="10" spans="1:20" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10"/>
       <c r="B10"/>
-      <c r="C10" s="104" t="s">
+      <c r="C10" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="83" t="s">
+      <c r="D10" s="107"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="83"/>
-      <c r="J10" s="83"/>
-      <c r="K10" s="114"/>
-      <c r="L10" s="114"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
       <c r="M10"/>
       <c r="N10"/>
       <c r="O10"/>
       <c r="P10"/>
       <c r="Q10"/>
     </row>
-    <row r="11" spans="1:20" s="2" customFormat="1" ht="15.95" customHeight="1" thickBot="1">
+    <row r="11" spans="1:20" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11"/>
       <c r="B11"/>
-      <c r="C11" s="107" t="s">
+      <c r="C11" s="59" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="108"/>
       <c r="E11" s="108"/>
       <c r="F11" s="108"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="83" t="s">
+      <c r="G11" s="115"/>
+      <c r="H11" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="83"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="114"/>
-      <c r="L11" s="114"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
       <c r="M11"/>
       <c r="N11"/>
       <c r="O11"/>
       <c r="P11"/>
       <c r="Q11"/>
     </row>
-    <row r="12" spans="1:20" s="2" customFormat="1" ht="15.95" customHeight="1">
+    <row r="12" spans="1:20" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12"/>
       <c r="B12"/>
-      <c r="C12" s="104" t="s">
+      <c r="C12" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="105"/>
-      <c r="E12" s="105"/>
-      <c r="F12" s="105"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="64" t="s">
+      <c r="D12" s="107"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="114"/>
-      <c r="L12" s="114"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
       <c r="M12"/>
       <c r="N12"/>
       <c r="O12"/>
       <c r="P12"/>
       <c r="Q12"/>
     </row>
-    <row r="13" spans="1:20" ht="15.95" customHeight="1">
-      <c r="C13" s="111" t="s">
+    <row r="13" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="49" t="s">
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="64" t="s">
+      <c r="H13" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="114"/>
-      <c r="L13" s="114"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
     </row>
-    <row r="14" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A14" s="64" t="s">
+    <row r="14" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -2386,16 +2330,16 @@
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
     </row>
-    <row r="15" spans="1:20" s="20" customFormat="1" ht="12.75" customHeight="1">
+    <row r="15" spans="1:20" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="101" t="s">
+      <c r="B15" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="101"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="101"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
       <c r="F15" s="19" t="s">
         <v>28</v>
       </c>
@@ -2419,12 +2363,12 @@
       <c r="N15"/>
       <c r="O15"/>
       <c r="P15"/>
-      <c r="Q15" s="115"/>
-      <c r="R15" s="115"/>
-      <c r="S15" s="115"/>
-      <c r="T15" s="115"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="51"/>
+      <c r="S15" s="51"/>
+      <c r="T15" s="51"/>
     </row>
-    <row r="16" spans="1:20" s="3" customFormat="1" ht="12.75" customHeight="1">
+    <row r="16" spans="1:20" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="21"/>
       <c r="B16" s="31" t="s">
         <v>34</v>
@@ -2462,10 +2406,8 @@
       <c r="O16"/>
       <c r="P16"/>
     </row>
-    <row r="17" spans="1:256" s="6" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A17" s="37" t="s">
-        <v>41</v>
-      </c>
+    <row r="17" spans="1:256" s="6" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="37"/>
       <c r="B17" s="38"/>
       <c r="C17" s="38"/>
       <c r="D17" s="38"/>
@@ -2485,10 +2427,8 @@
       <c r="S17" s="14"/>
       <c r="T17" s="14"/>
     </row>
-    <row r="18" spans="1:256" s="6" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A18" s="37" t="s">
-        <v>41</v>
-      </c>
+    <row r="18" spans="1:256" s="6" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="37"/>
       <c r="B18" s="38"/>
       <c r="C18" s="38"/>
       <c r="D18" s="38"/>
@@ -2508,10 +2448,8 @@
       <c r="S18" s="14"/>
       <c r="T18" s="14"/>
     </row>
-    <row r="19" spans="1:256" s="6" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A19" s="37" t="s">
-        <v>41</v>
-      </c>
+    <row r="19" spans="1:256" s="6" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="37"/>
       <c r="B19" s="38"/>
       <c r="C19" s="38"/>
       <c r="D19" s="38"/>
@@ -2533,10 +2471,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:256" s="6" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A20" s="37" t="s">
-        <v>41</v>
-      </c>
+    <row r="20" spans="1:256" s="6" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="37"/>
       <c r="B20" s="38"/>
       <c r="C20" s="38"/>
       <c r="D20" s="38"/>
@@ -2558,10 +2494,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:256" s="6" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A21" s="37" t="s">
-        <v>41</v>
-      </c>
+    <row r="21" spans="1:256" s="6" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="37"/>
       <c r="B21" s="38"/>
       <c r="C21" s="38"/>
       <c r="D21" s="38"/>
@@ -2583,10 +2517,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:256" s="6" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A22" s="37" t="s">
-        <v>41</v>
-      </c>
+    <row r="22" spans="1:256" s="6" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="37"/>
       <c r="B22" s="38"/>
       <c r="C22" s="38"/>
       <c r="D22" s="38"/>
@@ -2608,10 +2540,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:256" s="6" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A23" s="37" t="s">
-        <v>41</v>
-      </c>
+    <row r="23" spans="1:256" s="6" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="37"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
       <c r="D23" s="38"/>
@@ -2633,10 +2563,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:256" s="6" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A24" s="37" t="s">
-        <v>41</v>
-      </c>
+    <row r="24" spans="1:256" s="6" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="37"/>
       <c r="B24" s="38"/>
       <c r="C24" s="38"/>
       <c r="D24" s="38"/>
@@ -2658,10 +2586,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:256" s="6" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A25" s="37" t="s">
-        <v>41</v>
-      </c>
+    <row r="25" spans="1:256" s="6" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="37"/>
       <c r="B25" s="38"/>
       <c r="C25" s="38"/>
       <c r="D25" s="38"/>
@@ -2683,10 +2609,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:256" s="6" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A26" s="37" t="s">
-        <v>41</v>
-      </c>
+    <row r="26" spans="1:256" s="6" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="37"/>
       <c r="B26" s="38"/>
       <c r="C26" s="38"/>
       <c r="D26" s="38"/>
@@ -2708,7 +2632,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:256" s="6" customFormat="1" ht="19.5" customHeight="1">
+    <row r="27" spans="1:256" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -2719,7 +2643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:256" ht="13.5" thickBot="1">
+    <row r="28" spans="1:256" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -2977,20 +2901,20 @@
       <c r="IU28" s="6"/>
       <c r="IV28" s="6"/>
     </row>
-    <row r="29" spans="1:256" ht="13.5" thickBot="1">
+    <row r="29" spans="1:256" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="76"/>
-      <c r="J29" s="76"/>
-      <c r="K29" s="77"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="105"/>
+      <c r="H29" s="105"/>
+      <c r="I29" s="105"/>
+      <c r="J29" s="105"/>
+      <c r="K29" s="106"/>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
@@ -3233,7 +3157,7 @@
       <c r="IQ29" s="6"/>
       <c r="IR29" s="6"/>
     </row>
-    <row r="30" spans="1:256" ht="13.5" thickBot="1">
+    <row r="30" spans="1:256" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
@@ -3476,21 +3400,21 @@
       <c r="IU30" s="6"/>
       <c r="IV30" s="6"/>
     </row>
-    <row r="31" spans="1:256" ht="13.5" thickBot="1">
+    <row r="31" spans="1:256" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
-      <c r="D31" s="90" t="s">
+      <c r="D31" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="68"/>
+      <c r="H31" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="E31" s="91"/>
-      <c r="F31" s="91"/>
-      <c r="G31" s="92"/>
-      <c r="H31" s="90" t="s">
-        <v>44</v>
-      </c>
-      <c r="I31" s="91"/>
-      <c r="J31" s="92"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="68"/>
       <c r="K31" s="6"/>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
@@ -3734,21 +3658,21 @@
       <c r="IR31" s="6"/>
       <c r="IS31" s="6"/>
     </row>
-    <row r="32" spans="1:256" ht="12.6" customHeight="1">
-      <c r="A32" s="84" t="s">
+    <row r="32" spans="1:256" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="100" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="101"/>
+      <c r="C32" s="101"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="78"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="69"/>
+      <c r="J32" s="70"/>
+      <c r="K32" s="97" t="s">
         <v>45</v>
-      </c>
-      <c r="B32" s="85"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="97"/>
-      <c r="F32" s="93"/>
-      <c r="G32" s="94"/>
-      <c r="H32" s="71"/>
-      <c r="I32" s="93"/>
-      <c r="J32" s="94"/>
-      <c r="K32" s="80" t="s">
-        <v>46</v>
       </c>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
@@ -3992,18 +3916,18 @@
       <c r="IQ32" s="6"/>
       <c r="IR32" s="6"/>
     </row>
-    <row r="33" spans="1:256" ht="12.6" customHeight="1">
-      <c r="A33" s="60"/>
-      <c r="B33" s="61"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="98"/>
-      <c r="F33" s="95"/>
-      <c r="G33" s="96"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="95"/>
-      <c r="J33" s="96"/>
-      <c r="K33" s="81"/>
+    <row r="33" spans="1:256" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="87"/>
+      <c r="B33" s="88"/>
+      <c r="C33" s="88"/>
+      <c r="D33" s="79"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="79"/>
+      <c r="I33" s="71"/>
+      <c r="J33" s="72"/>
+      <c r="K33" s="98"/>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
@@ -4246,25 +4170,25 @@
       <c r="IQ33" s="6"/>
       <c r="IR33" s="6"/>
     </row>
-    <row r="34" spans="1:256" ht="12.6" customHeight="1" thickBot="1">
-      <c r="A34" s="86"/>
-      <c r="B34" s="87"/>
-      <c r="C34" s="87"/>
+    <row r="34" spans="1:256" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="102"/>
+      <c r="B34" s="103"/>
+      <c r="C34" s="103"/>
       <c r="D34" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="23"/>
+      <c r="F34" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="E34" s="23"/>
-      <c r="F34" s="78" t="s">
-        <v>48</v>
-      </c>
-      <c r="G34" s="79"/>
+      <c r="G34" s="63"/>
       <c r="H34" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="I34" s="78" t="s">
-        <v>48</v>
-      </c>
-      <c r="J34" s="79"/>
+      <c r="J34" s="63"/>
       <c r="K34" s="30"/>
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
@@ -4508,21 +4432,21 @@
       <c r="IQ34" s="6"/>
       <c r="IR34" s="6"/>
     </row>
-    <row r="35" spans="1:256" ht="12.95" customHeight="1">
-      <c r="A35" s="58" t="s">
+    <row r="35" spans="1:256" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="86"/>
+      <c r="C35" s="86"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="74"/>
+      <c r="H35" s="81"/>
+      <c r="I35" s="73"/>
+      <c r="J35" s="74"/>
+      <c r="K35" s="99" t="s">
         <v>49</v>
-      </c>
-      <c r="B35" s="59"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="73"/>
-      <c r="E35" s="99"/>
-      <c r="F35" s="116"/>
-      <c r="G35" s="117"/>
-      <c r="H35" s="73"/>
-      <c r="I35" s="116"/>
-      <c r="J35" s="117"/>
-      <c r="K35" s="82" t="s">
-        <v>50</v>
       </c>
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
@@ -4766,18 +4690,18 @@
       <c r="IQ35" s="6"/>
       <c r="IR35" s="6"/>
     </row>
-    <row r="36" spans="1:256" ht="12.6" customHeight="1">
-      <c r="A36" s="60"/>
-      <c r="B36" s="61"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="74"/>
-      <c r="E36" s="100"/>
-      <c r="F36" s="118"/>
-      <c r="G36" s="119"/>
-      <c r="H36" s="74"/>
-      <c r="I36" s="118"/>
-      <c r="J36" s="119"/>
-      <c r="K36" s="81"/>
+    <row r="36" spans="1:256" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="87"/>
+      <c r="B36" s="88"/>
+      <c r="C36" s="88"/>
+      <c r="D36" s="83"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="76"/>
+      <c r="H36" s="83"/>
+      <c r="I36" s="75"/>
+      <c r="J36" s="76"/>
+      <c r="K36" s="98"/>
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
@@ -5020,25 +4944,25 @@
       <c r="IQ36" s="6"/>
       <c r="IR36" s="6"/>
     </row>
-    <row r="37" spans="1:256" ht="12.95" customHeight="1" thickBot="1">
-      <c r="A37" s="62"/>
-      <c r="B37" s="63"/>
-      <c r="C37" s="63"/>
+    <row r="37" spans="1:256" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="89"/>
+      <c r="B37" s="90"/>
+      <c r="C37" s="90"/>
       <c r="D37" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="24"/>
+      <c r="F37" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="E37" s="24"/>
-      <c r="F37" s="88" t="s">
-        <v>48</v>
-      </c>
-      <c r="G37" s="89"/>
+      <c r="G37" s="65"/>
       <c r="H37" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="I37" s="88" t="s">
-        <v>48</v>
-      </c>
-      <c r="J37" s="89"/>
+      <c r="J37" s="65"/>
       <c r="K37" s="29"/>
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
@@ -5282,7 +5206,7 @@
       <c r="IQ37" s="6"/>
       <c r="IR37" s="6"/>
     </row>
-    <row r="38" spans="1:256">
+    <row r="38" spans="1:256" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -5536,9 +5460,9 @@
       <c r="IU38" s="6"/>
       <c r="IV38" s="6"/>
     </row>
-    <row r="39" spans="1:256">
+    <row r="39" spans="1:256" x14ac:dyDescent="0.2">
       <c r="A39" s="42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -5794,6 +5718,32 @@
   </sheetData>
   <sheetProtection formatCells="0" formatRows="0" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <mergeCells count="42">
+    <mergeCell ref="A35:C37"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="J1:K5"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="D29:K29"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="A32:C34"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="I32:J33"/>
+    <mergeCell ref="I35:J36"/>
+    <mergeCell ref="D32:E33"/>
+    <mergeCell ref="D35:E36"/>
+    <mergeCell ref="F32:G33"/>
+    <mergeCell ref="F35:G36"/>
     <mergeCell ref="H10:J10"/>
     <mergeCell ref="H11:J11"/>
     <mergeCell ref="B15:E15"/>
@@ -5810,32 +5760,6 @@
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="C13:F13"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="I32:J33"/>
-    <mergeCell ref="I35:J36"/>
-    <mergeCell ref="D32:E33"/>
-    <mergeCell ref="D35:E36"/>
-    <mergeCell ref="F32:G33"/>
-    <mergeCell ref="F35:G36"/>
-    <mergeCell ref="A35:C37"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="J1:K5"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="D29:K29"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="A32:C34"/>
-    <mergeCell ref="F37:G37"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="D29:K29">
@@ -5914,11 +5838,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="YG Form" ma:contentTypeID="0x010101006EE023B1621DBB4F8E90D9D19F1AE79500C15E4BA91827794CB1F71180842FA4CC" ma:contentTypeVersion="16" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="901b3e4371901910115aa1117d7dff82">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="735eeb13-47b0-4f7e-9a38-605dfa23e887" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns4="aed7f4df-4b2a-4894-bae6-881fc73a2f89" xmlns:ns5="http://schemas.microsoft.com/sharepoint/v4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="caf230f2ebf65a693f9169bdf883465b" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -6249,7 +6168,26 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events"/>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="71dbc130-9a09-4654-95c9-933da96cfe25" ContentTypeId="0x010101006EE023B1621DBB4F8E90D9D19F1AE795" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Notes1 xmlns="735eeb13-47b0-4f7e-9a38-605dfa23e887" xsi:nil="true"/>
@@ -6285,36 +6223,62 @@
 </p:properties>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="71dbc130-9a09-4654-95c9-933da96cfe25" ContentTypeId="0x010101006EE023B1621DBB4F8E90D9D19F1AE795" PreviousValue="false"/>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6AC04F08-C1D9-4F4A-B78C-273CFDA88303}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FA97FBD-B86A-485E-83CD-FCABE1456FA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="735eeb13-47b0-4f7e-9a38-605dfa23e887"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="aed7f4df-4b2a-4894-bae6-881fc73a2f89"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FA97FBD-B86A-485E-83CD-FCABE1456FA0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6AC04F08-C1D9-4F4A-B78C-273CFDA88303}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5C56227-A69D-4AC9-A90C-D43E61E84064}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09CF56E3-68F7-4223-8F8E-9B258BFFB79C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B148F0C2-7D0B-48FD-A8EB-569EC1DA352A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B148F0C2-7D0B-48FD-A8EB-569EC1DA352A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09CF56E3-68F7-4223-8F8E-9B258BFFB79C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5C56227-A69D-4AC9-A90C-D43E61E84064}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="735eeb13-47b0-4f7e-9a38-605dfa23e887"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="aed7f4df-4b2a-4894-bae6-881fc73a2f89"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>